--- a/Microsoft/Purview/Purview-Retail-Data-Protection-Masterclass/02-Data-Foundation/data-templates/Product-Catalog.xlsx
+++ b/Microsoft/Purview/Purview-Retail-Data-Protection-Masterclass/02-Data-Foundation/data-templates/Product-Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\GitHub\Projects\Microsoft\Purview\Purview-Retail-Data-Protection-Masterclass\02-Data-Foundation\data-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{739D74A6-600F-4750-A88E-20FE6C54AFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D38EEF-C75D-45AC-A79C-22B2A75799D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AEDF4FB4-DE3B-49D7-8477-065BE5D9D8CC}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7C46E5AB-C74F-48E5-B9B9-F18113CBE4AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC11A800-A3DE-4C96-9C56-FD6375BE58C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D331839-1D78-4E85-A2CB-6ECA22A622C7}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
